--- a/data/case_01_reschedule.xlsx
+++ b/data/case_01_reschedule.xlsx
@@ -34,6 +34,33 @@
     <t>3_2_1</t>
   </si>
   <si>
+    <t>3_3_3</t>
+  </si>
+  <si>
+    <t>2_2_1</t>
+  </si>
+  <si>
+    <t>1_1_-1</t>
+  </si>
+  <si>
+    <t>2_1_-1</t>
+  </si>
+  <si>
+    <t>2_1_2</t>
+  </si>
+  <si>
+    <t>2_2_2</t>
+  </si>
+  <si>
+    <t>2_3_2</t>
+  </si>
+  <si>
+    <t>3_1_2</t>
+  </si>
+  <si>
+    <t>3_2_2</t>
+  </si>
+  <si>
     <t>3_3_1</t>
   </si>
   <si>
@@ -43,18 +70,6 @@
     <t>2_3_1</t>
   </si>
   <si>
-    <t>3_3_3</t>
-  </si>
-  <si>
-    <t>2_2_1</t>
-  </si>
-  <si>
-    <t>1_1_-1</t>
-  </si>
-  <si>
-    <t>2_1_-1</t>
-  </si>
-  <si>
     <t>3_1_-1</t>
   </si>
   <si>
@@ -64,6 +79,9 @@
     <t>2_2_-1</t>
   </si>
   <si>
+    <t>3_3_2</t>
+  </si>
+  <si>
     <t>3_2_-1</t>
   </si>
   <si>
@@ -103,24 +121,6 @@
     <t>3_3_-2</t>
   </si>
   <si>
-    <t>2_1_2</t>
-  </si>
-  <si>
-    <t>2_2_2</t>
-  </si>
-  <si>
-    <t>2_3_2</t>
-  </si>
-  <si>
-    <t>3_1_2</t>
-  </si>
-  <si>
-    <t>3_2_2</t>
-  </si>
-  <si>
-    <t>3_3_2</t>
-  </si>
-  <si>
     <t>M00009</t>
   </si>
   <si>
@@ -145,115 +145,115 @@
     <t>D10020</t>
   </si>
   <si>
+    <t>S10020</t>
+  </si>
+  <si>
+    <t>M00007</t>
+  </si>
+  <si>
+    <t>T10030</t>
+  </si>
+  <si>
+    <t>D10030</t>
+  </si>
+  <si>
+    <t>S10030</t>
+  </si>
+  <si>
+    <t>T10040</t>
+  </si>
+  <si>
+    <t>S10040</t>
+  </si>
+  <si>
+    <t>T10050</t>
+  </si>
+  <si>
+    <t>S10050</t>
+  </si>
+  <si>
     <t>F20010</t>
   </si>
   <si>
-    <t>S10020</t>
-  </si>
-  <si>
-    <t>M00007</t>
-  </si>
-  <si>
-    <t>T10030</t>
-  </si>
-  <si>
-    <t>D10030</t>
+    <t>T10060</t>
+  </si>
+  <si>
+    <t>S10060</t>
   </si>
   <si>
     <t>F20020</t>
   </si>
   <si>
-    <t>S10030</t>
-  </si>
-  <si>
-    <t>T10040</t>
+    <t>T10070</t>
+  </si>
+  <si>
+    <t>S10061</t>
   </si>
   <si>
     <t>F20030</t>
   </si>
   <si>
-    <t>S10040</t>
-  </si>
-  <si>
-    <t>T10050</t>
+    <t>T10080</t>
+  </si>
+  <si>
+    <t>S10070</t>
   </si>
   <si>
     <t>F20040</t>
   </si>
   <si>
-    <t>S10050</t>
-  </si>
-  <si>
-    <t>T10060</t>
+    <t>T10090</t>
+  </si>
+  <si>
+    <t>S11010</t>
   </si>
   <si>
     <t>F20050</t>
   </si>
   <si>
-    <t>S10060</t>
-  </si>
-  <si>
-    <t>T10070</t>
+    <t>W10010</t>
+  </si>
+  <si>
+    <t>T30010</t>
+  </si>
+  <si>
+    <t>T35010</t>
+  </si>
+  <si>
+    <t>S11020</t>
   </si>
   <si>
     <t>F20051</t>
   </si>
   <si>
-    <t>S10061</t>
-  </si>
-  <si>
-    <t>T10080</t>
+    <t>W10020</t>
+  </si>
+  <si>
+    <t>T30020</t>
+  </si>
+  <si>
+    <t>T35020</t>
+  </si>
+  <si>
+    <t>S11030</t>
   </si>
   <si>
     <t>F20060</t>
   </si>
   <si>
-    <t>S10070</t>
-  </si>
-  <si>
-    <t>T10090</t>
+    <t>W10030</t>
+  </si>
+  <si>
+    <t>T30030</t>
+  </si>
+  <si>
+    <t>T35030</t>
+  </si>
+  <si>
+    <t>S11040</t>
   </si>
   <si>
     <t>F20070</t>
-  </si>
-  <si>
-    <t>S11010</t>
-  </si>
-  <si>
-    <t>W10010</t>
-  </si>
-  <si>
-    <t>T30010</t>
-  </si>
-  <si>
-    <t>T35010</t>
-  </si>
-  <si>
-    <t>S11020</t>
-  </si>
-  <si>
-    <t>W10020</t>
-  </si>
-  <si>
-    <t>T30020</t>
-  </si>
-  <si>
-    <t>T35020</t>
-  </si>
-  <si>
-    <t>S11030</t>
-  </si>
-  <si>
-    <t>W10030</t>
-  </si>
-  <si>
-    <t>T30030</t>
-  </si>
-  <si>
-    <t>T35030</t>
-  </si>
-  <si>
-    <t>S11040</t>
   </si>
   <si>
     <t>W10040</t>
@@ -915,7 +915,7 @@
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:61">
@@ -929,34 +929,34 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>62</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>65</v>
       </c>
-      <c r="K3" t="s">
-        <v>68</v>
-      </c>
       <c r="L3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
         <v>80</v>
@@ -1027,34 +1027,34 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>59</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N4" t="s">
         <v>81</v>
@@ -1087,13 +1087,13 @@
         <v>106</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s">
         <v>80</v>
@@ -1146,34 +1146,34 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
         <v>50</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>59</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>62</v>
       </c>
-      <c r="J5" t="s">
-        <v>65</v>
-      </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
         <v>82</v>
@@ -1200,13 +1200,13 @@
         <v>102</v>
       </c>
       <c r="V5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s">
         <v>80</v>
@@ -1276,139 +1276,139 @@
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
       <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>56</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>59</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>62</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>65</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" t="s">
+        <v>84</v>
+      </c>
+      <c r="U6" t="s">
+        <v>97</v>
+      </c>
+      <c r="V6" t="s">
+        <v>100</v>
+      </c>
+      <c r="W6" t="s">
+        <v>103</v>
+      </c>
+      <c r="X6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>68</v>
       </c>
-      <c r="L6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
-      <c r="O6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R6" t="s">
-        <v>84</v>
-      </c>
-      <c r="S6" t="s">
-        <v>84</v>
-      </c>
-      <c r="T6" t="s">
-        <v>97</v>
-      </c>
-      <c r="U6" t="s">
-        <v>100</v>
-      </c>
-      <c r="V6" t="s">
-        <v>103</v>
-      </c>
-      <c r="W6" t="s">
-        <v>105</v>
-      </c>
-      <c r="X6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>75</v>
-      </c>
       <c r="AR6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AS6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT6" t="s">
         <v>83</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" t="s">
         <v>87</v>
       </c>
-      <c r="AU6" t="s">
+      <c r="AV6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1419,121 +1419,121 @@
       <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>59</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>62</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>65</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U7" t="s">
+        <v>97</v>
+      </c>
+      <c r="V7" t="s">
+        <v>100</v>
+      </c>
+      <c r="W7" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK7" t="s">
         <v>68</v>
       </c>
-      <c r="L7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" t="s">
-        <v>84</v>
-      </c>
-      <c r="S7" t="s">
-        <v>84</v>
-      </c>
-      <c r="T7" t="s">
-        <v>97</v>
-      </c>
-      <c r="U7" t="s">
-        <v>100</v>
-      </c>
-      <c r="V7" t="s">
-        <v>103</v>
-      </c>
-      <c r="W7" t="s">
-        <v>105</v>
-      </c>
-      <c r="X7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>75</v>
-      </c>
       <c r="AL7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AM7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN7" t="s">
         <v>83</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AO7" t="s">
         <v>87</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1542,145 +1542,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" t="s">
-        <v>84</v>
-      </c>
-      <c r="T8" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" t="s">
-        <v>100</v>
-      </c>
-      <c r="V8" t="s">
-        <v>103</v>
-      </c>
-      <c r="W8" t="s">
-        <v>105</v>
-      </c>
-      <c r="X8" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -1688,141 +1556,51 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" t="s">
         <v>68</v>
       </c>
-      <c r="L9" t="s">
-        <v>72</v>
-      </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q9" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" t="s">
-        <v>97</v>
-      </c>
-      <c r="U9" t="s">
-        <v>100</v>
-      </c>
-      <c r="V9" t="s">
-        <v>103</v>
-      </c>
-      <c r="W9" t="s">
-        <v>105</v>
-      </c>
-      <c r="X9" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1831,145 +1609,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>84</v>
-      </c>
-      <c r="R10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" t="s">
-        <v>97</v>
-      </c>
-      <c r="U10" t="s">
-        <v>100</v>
-      </c>
-      <c r="V10" t="s">
-        <v>103</v>
-      </c>
-      <c r="W10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X10" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:61">
@@ -1977,13 +1617,52 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
         <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:61">
@@ -1991,51 +1670,48 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2044,7 +1720,49 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" t="s">
+        <v>83</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:61">
@@ -2052,51 +1770,48 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" t="s">
-        <v>67</v>
-      </c>
-      <c r="L14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" t="s">
         <v>83</v>
       </c>
-      <c r="P14" t="s">
+      <c r="S14" t="s">
         <v>87</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="T14" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2105,51 +1820,48 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
         <v>49</v>
       </c>
-      <c r="F15" t="s">
-        <v>52</v>
-      </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" t="s">
-        <v>75</v>
-      </c>
-      <c r="N15" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" t="s">
         <v>83</v>
       </c>
-      <c r="P15" t="s">
+      <c r="T15" t="s">
         <v>87</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="U15" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2158,815 +1870,1103 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>73</v>
+      </c>
+      <c r="R16" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T16" t="s">
+        <v>87</v>
+      </c>
+      <c r="U16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
       <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" t="s">
+        <v>84</v>
+      </c>
+      <c r="U17" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s">
+        <v>84</v>
+      </c>
+      <c r="W17" t="s">
+        <v>84</v>
+      </c>
+      <c r="X17" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM17" t="s">
         <v>39</v>
       </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="AN17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP17" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" t="s">
-        <v>79</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="AQ17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY17" t="s">
         <v>83</v>
       </c>
-      <c r="P17" t="s">
+      <c r="AZ17" t="s">
         <v>87</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="BA17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:54">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18" t="s">
+        <v>80</v>
+      </c>
+      <c r="U18" t="s">
+        <v>84</v>
+      </c>
+      <c r="V18" t="s">
+        <v>84</v>
+      </c>
+      <c r="W18" t="s">
+        <v>84</v>
+      </c>
+      <c r="X18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM18" t="s">
         <v>39</v>
       </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="AN18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP18" t="s">
         <v>49</v>
       </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" t="s">
-        <v>79</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="AQ18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY18" t="s">
         <v>83</v>
       </c>
-      <c r="P18" t="s">
+      <c r="AZ18" t="s">
         <v>87</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="BA18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:54">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P19" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19" t="s">
+        <v>84</v>
+      </c>
+      <c r="V19" t="s">
+        <v>84</v>
+      </c>
+      <c r="W19" t="s">
+        <v>84</v>
+      </c>
+      <c r="X19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
         <v>49</v>
       </c>
-      <c r="F20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s">
         <v>83</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>87</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:54">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
       <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" t="s">
-        <v>67</v>
-      </c>
-      <c r="L21" t="s">
-        <v>71</v>
-      </c>
-      <c r="M21" t="s">
-        <v>75</v>
-      </c>
-      <c r="N21" t="s">
-        <v>79</v>
-      </c>
-      <c r="O21" t="s">
-        <v>83</v>
-      </c>
-      <c r="P21" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
       <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s">
         <v>51</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>54</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>57</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
         <v>60</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>63</v>
       </c>
-      <c r="J22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="M22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>87</v>
+      </c>
+      <c r="R22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
       <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
         <v>51</v>
       </c>
-      <c r="F23" t="s">
+      <c r="J23" t="s">
         <v>54</v>
       </c>
-      <c r="G23" t="s">
+      <c r="K23" t="s">
         <v>57</v>
       </c>
-      <c r="H23" t="s">
+      <c r="L23" t="s">
         <v>60</v>
       </c>
-      <c r="I23" t="s">
+      <c r="P23" t="s">
         <v>63</v>
       </c>
-      <c r="J23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="Q23" t="s">
+        <v>68</v>
+      </c>
+      <c r="R23" t="s">
+        <v>73</v>
+      </c>
+      <c r="S23" t="s">
+        <v>78</v>
+      </c>
+      <c r="T23" t="s">
+        <v>83</v>
+      </c>
+      <c r="U23" t="s">
+        <v>87</v>
+      </c>
+      <c r="V23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
       </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
         <v>51</v>
       </c>
-      <c r="F24" t="s">
+      <c r="J24" t="s">
         <v>54</v>
       </c>
-      <c r="G24" t="s">
+      <c r="K24" t="s">
         <v>57</v>
       </c>
-      <c r="H24" t="s">
+      <c r="L24" t="s">
         <v>60</v>
       </c>
-      <c r="I24" t="s">
+      <c r="M24" t="s">
         <v>63</v>
       </c>
-      <c r="J24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="N24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" t="s">
+        <v>87</v>
+      </c>
+      <c r="S24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
       <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s">
         <v>51</v>
       </c>
-      <c r="F26" t="s">
+      <c r="J26" t="s">
         <v>54</v>
       </c>
-      <c r="G26" t="s">
+      <c r="K26" t="s">
         <v>57</v>
       </c>
-      <c r="H26" t="s">
+      <c r="L26" t="s">
         <v>60</v>
       </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
         <v>63</v>
       </c>
-      <c r="J26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="N26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26" t="s">
+        <v>87</v>
+      </c>
+      <c r="S26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s">
         <v>43</v>
       </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" t="s">
         <v>51</v>
       </c>
-      <c r="F27" t="s">
+      <c r="K27" t="s">
         <v>54</v>
       </c>
-      <c r="G27" t="s">
+      <c r="L27" t="s">
         <v>57</v>
       </c>
-      <c r="H27" t="s">
+      <c r="M27" t="s">
         <v>60</v>
       </c>
-      <c r="I27" t="s">
+      <c r="N27" t="s">
         <v>63</v>
       </c>
-      <c r="J27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" t="s">
+        <v>83</v>
+      </c>
+      <c r="S27" t="s">
+        <v>87</v>
+      </c>
+      <c r="T27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>64</v>
+      </c>
+      <c r="K28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>64</v>
+      </c>
+      <c r="K29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>61</v>
+      </c>
+      <c r="K30" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" t="s">
+        <v>69</v>
+      </c>
+      <c r="M30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
         <v>52</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>55</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>58</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>61</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>64</v>
       </c>
-      <c r="J31" t="s">
-        <v>67</v>
-      </c>
-      <c r="K31" t="s">
-        <v>71</v>
-      </c>
       <c r="L31" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M31" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" t="s">
         <v>79</v>
       </c>
-      <c r="N31" t="s">
-        <v>83</v>
-      </c>
-      <c r="O31" t="s">
-        <v>87</v>
-      </c>
-      <c r="P31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+    </row>
+    <row r="32" spans="1:54">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
         <v>52</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>55</v>
       </c>
-      <c r="G32" t="s">
+      <c r="J32" t="s">
         <v>58</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" t="s">
         <v>61</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>64</v>
       </c>
-      <c r="J32" t="s">
-        <v>67</v>
-      </c>
-      <c r="K32" t="s">
-        <v>71</v>
-      </c>
-      <c r="L32" t="s">
-        <v>75</v>
-      </c>
       <c r="M32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" t="s">
         <v>79</v>
       </c>
-      <c r="N32" t="s">
-        <v>83</v>
-      </c>
-      <c r="O32" t="s">
-        <v>87</v>
-      </c>
-      <c r="P32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" t="s">
         <v>52</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>55</v>
       </c>
-      <c r="G33" t="s">
+      <c r="J33" t="s">
         <v>58</v>
       </c>
-      <c r="H33" t="s">
+      <c r="K33" t="s">
         <v>61</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>64</v>
       </c>
-      <c r="J33" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33" t="s">
-        <v>71</v>
-      </c>
-      <c r="L33" t="s">
-        <v>75</v>
-      </c>
       <c r="M33" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" t="s">
+        <v>74</v>
+      </c>
+      <c r="O33" t="s">
         <v>79</v>
       </c>
-      <c r="N33" t="s">
-        <v>83</v>
-      </c>
-      <c r="O33" t="s">
-        <v>87</v>
-      </c>
-      <c r="P33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" t="s">
         <v>52</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>55</v>
       </c>
-      <c r="G34" t="s">
+      <c r="K34" t="s">
         <v>58</v>
       </c>
-      <c r="H34" t="s">
+      <c r="L34" t="s">
         <v>61</v>
       </c>
-      <c r="I34" t="s">
+      <c r="M34" t="s">
         <v>64</v>
       </c>
-      <c r="J34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K34" t="s">
-        <v>71</v>
-      </c>
-      <c r="L34" t="s">
-        <v>75</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
+        <v>69</v>
+      </c>
+      <c r="O34" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" t="s">
         <v>79</v>
       </c>
-      <c r="N34" t="s">
-        <v>83</v>
-      </c>
-      <c r="O34" t="s">
-        <v>87</v>
-      </c>
-      <c r="P34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" t="s">
         <v>52</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>55</v>
       </c>
-      <c r="G35" t="s">
+      <c r="K35" t="s">
         <v>58</v>
       </c>
-      <c r="H35" t="s">
+      <c r="L35" t="s">
         <v>61</v>
       </c>
-      <c r="I35" t="s">
+      <c r="M35" t="s">
         <v>64</v>
       </c>
-      <c r="J35" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35" t="s">
-        <v>71</v>
-      </c>
-      <c r="L35" t="s">
-        <v>75</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
+        <v>69</v>
+      </c>
+      <c r="O35" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35" t="s">
         <v>79</v>
       </c>
-      <c r="N35" t="s">
-        <v>83</v>
-      </c>
-      <c r="O35" t="s">
-        <v>87</v>
-      </c>
-      <c r="P35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" t="s">
         <v>52</v>
       </c>
-      <c r="F36" t="s">
+      <c r="J36" t="s">
         <v>55</v>
       </c>
-      <c r="G36" t="s">
+      <c r="L36" t="s">
         <v>58</v>
       </c>
-      <c r="H36" t="s">
+      <c r="M36" t="s">
         <v>61</v>
       </c>
-      <c r="I36" t="s">
+      <c r="N36" t="s">
         <v>64</v>
       </c>
-      <c r="J36" t="s">
-        <v>67</v>
-      </c>
-      <c r="K36" t="s">
-        <v>71</v>
-      </c>
-      <c r="L36" t="s">
-        <v>75</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="O36" t="s">
+        <v>69</v>
+      </c>
+      <c r="P36" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q36" t="s">
         <v>79</v>
-      </c>
-      <c r="N36" t="s">
-        <v>83</v>
-      </c>
-      <c r="O36" t="s">
-        <v>87</v>
-      </c>
-      <c r="P36" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
